--- a/API_Templete_bunjang_mingyu.xlsx
+++ b/API_Templete_bunjang_mingyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Desktop/rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DD357-AEB7-FA47-A390-3AC27C386F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A42028-9A91-2744-95A5-4F31C2AFE029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="6" r:id="rId1"/>
@@ -23,18 +23,19 @@
     <sheet name="게시글 상세정보 API" sheetId="14" r:id="rId8"/>
     <sheet name="게시글 상세정보 이미지 API" sheetId="17" r:id="rId9"/>
     <sheet name="게시글 상세정보 해시태그 API" sheetId="18" r:id="rId10"/>
+    <sheet name="게시글 삭제" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="325">
   <si>
     <t>API 명세서</t>
   </si>
@@ -1931,6 +1932,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1949,6 +1951,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1967,6 +1970,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1985,6 +1989,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2003,6 +2008,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2026,6 +2032,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2044,6 +2051,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2062,6 +2070,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2085,6 +2094,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2103,6 +2113,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2129,6 +2140,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2147,6 +2159,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5 NT500R5L-L51L",</t>
     </r>
@@ -2170,6 +2183,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2188,6 +2202,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -2206,6 +2221,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2229,6 +2245,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2247,6 +2264,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2265,6 +2283,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2283,6 +2302,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2.5",</t>
     </r>
@@ -2309,6 +2329,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> INVU lp",</t>
     </r>
@@ -2344,6 +2365,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2362,6 +2384,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2462,6 +2485,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -2485,6 +2509,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2503,6 +2528,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2526,6 +2552,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2544,6 +2571,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2777,6 +2805,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2806,6 +2835,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -2829,6 +2859,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2847,6 +2878,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2865,6 +2897,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2883,6 +2916,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2901,6 +2935,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M2 </t>
     </r>
@@ -2919,6 +2954,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2937,6 +2973,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) 8</t>
     </r>
@@ -2955,6 +2992,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CPU 8</t>
     </r>
@@ -2973,6 +3011,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> GPU 256GB </t>
     </r>
@@ -2991,6 +3030,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -3009,6 +3049,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3027,6 +3068,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3045,6 +3087,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3063,6 +3106,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3081,6 +3125,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3099,6 +3144,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3117,6 +3163,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -3135,6 +3182,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3153,6 +3201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3171,6 +3220,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3189,6 +3239,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3207,6 +3258,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3225,6 +3277,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3243,6 +3296,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 169</t>
     </r>
@@ -3261,6 +3315,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -3284,6 +3339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -3313,6 +3369,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -3336,6 +3393,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3354,6 +3412,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.",</t>
     </r>
@@ -3377,6 +3436,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -3472,6 +3532,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -3490,6 +3551,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -3508,6 +3570,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -3542,6 +3605,93 @@
   </si>
   <si>
     <t>/app/posts/:userIdx/:postIdx/hashtag</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/:userIdx/delete/:postsIdx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/:userIdx/delete/:postIdx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글이 삭제되었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 메시지2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "result": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>."</t>
+    </r>
+  </si>
+  <si>
+    <t>Response Sample</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제에 실패하였습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성자와 유저 아이디가 같아야 함</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3868,9 +4018,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3878,6 +4025,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5068,55 +5218,55 @@
       <c r="J33" s="19"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5152,7 +5302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>312</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -5666,7 +5816,7 @@
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="29"/>
@@ -5910,7 +6060,7 @@
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
-      <c r="C46" s="48"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="39" t="s">
         <v>175</v>
       </c>
@@ -6966,6 +7116,1749 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369121F7-AF82-F442-9A9B-C6C1FB5F9534}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="42.83203125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="29">
+        <v>12</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="29">
+        <v>4000</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2025</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="D36" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="D37" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="D38" s="34"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="D39" s="34"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="D40" s="34"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="D41" s="34"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="D42" s="34"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="D43" s="34"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="D45" s="39"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="44"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -6974,7 +8867,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -7238,7 +9131,7 @@
       <c r="E12" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>310</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -7248,7 +9141,7 @@
         <v>216</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -7264,7 +9157,7 @@
       <c r="E13" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>311</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -7273,7 +9166,9 @@
       <c r="H13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -7288,7 +9183,7 @@
       <c r="E14" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="46" t="s">
         <v>312</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -7297,7 +9192,9 @@
       <c r="H14" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -7306,11 +9203,21 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -13446,8 +15353,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -18233,7 +20140,7 @@
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -23303,7 +25210,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -23321,7 +25228,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>310</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -25307,7 +27214,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>311</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -26019,7 +27926,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="39" t="s">
         <v>175</v>
       </c>

--- a/API_Templete_bunjang_mingyu.xlsx
+++ b/API_Templete_bunjang_mingyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Desktop/rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A42028-9A91-2744-95A5-4F31C2AFE029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1CBA0-A0C6-404C-81D6-330605CC78DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="6" r:id="rId1"/>
@@ -24,18 +24,20 @@
     <sheet name="게시글 상세정보 이미지 API" sheetId="17" r:id="rId9"/>
     <sheet name="게시글 상세정보 해시태그 API" sheetId="18" r:id="rId10"/>
     <sheet name="게시글 삭제" sheetId="19" r:id="rId11"/>
+    <sheet name="상점 검색시 상점 정보 API" sheetId="20" r:id="rId12"/>
+    <sheet name="상점 검색시 상점 전체 게시글 API" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="342">
   <si>
     <t>API 명세서</t>
   </si>
@@ -2431,10 +2433,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ㄴprodStatus</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2625,14 +2623,6 @@
     </r>
   </si>
   <si>
-    <t>ㄴviewNum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴchatNum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>조회수</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2642,22 +2632,6 @@
   </si>
   <si>
     <t>채팅수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴquantity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴdeliveryFee</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴexchange</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴpostContent</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3616,10 +3590,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 삭제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>PATCH</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3694,12 +3664,467 @@
     <t>게시글 작성자와 유저 아이디가 같아야 함</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>/app/posts/search-store/:userIdx/posts</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/search-store/:userIdx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 검색시 상점 게시글들 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 검색시 상점 정보 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>userRegion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공하였습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        "storeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거래양도계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        "userRegion": null,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        "description": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> userIdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같아야 함</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeRegion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>postingTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>postContent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellingStatus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 검색시 상점 전체 게시글 API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "payStatus": false</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번개페이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(true), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0(false)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 정보 API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> userIdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같아야 함</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3865,6 +4290,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3925,7 +4370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4027,6 +4472,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4356,13 +4810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>991659</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>179918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>357717</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4495,6 +4949,104 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>611717</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>970280</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAE5E43-A851-AF37-3906-967AB6027D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13322300" y="5228167"/>
+          <a:ext cx="3554730" cy="7899400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518052</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2748278</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2B3910-AA18-FA39-583A-8653988EE392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16837552" y="6064250"/>
+          <a:ext cx="3330893" cy="7401984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5284,8 +5836,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5303,10 +5855,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5658,7 +6210,7 @@
       <c r="B22" s="29"/>
       <c r="C22" s="40"/>
       <c r="D22" s="43" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>129</v>
@@ -5817,7 +6369,7 @@
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="48" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -5880,7 +6432,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -5978,7 +6530,7 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -6040,7 +6592,7 @@
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="D44" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E44" s="1"/>
       <c r="H44" s="1"/>
@@ -6082,7 +6634,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="34" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -6113,7 +6665,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1">
@@ -6133,7 +6685,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="D56" s="34" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
@@ -6153,7 +6705,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="D60" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
@@ -7123,7 +7675,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -7142,7 +7694,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>192</v>
@@ -7173,7 +7725,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -7402,7 +7954,7 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="33" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -7528,7 +8080,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="49"/>
       <c r="D23" s="33" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>129</v>
@@ -7537,11 +8089,11 @@
         <v>118</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="33" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -7619,7 +8171,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="33" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E29" s="29">
         <v>2025</v>
@@ -7645,7 +8197,7 @@
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="38" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="29"/>
@@ -7726,7 +8278,7 @@
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="D36" s="34" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="29"/>
@@ -8859,6 +9411,3588 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8309470-B72F-3540-A105-198CB79675A2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="B38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="80.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="21.6640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="29">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="34"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="34"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDE2A0E-49B7-1C43-B55D-644477370C2B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="C32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="81.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="42.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="29">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="D40" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="D41" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="D42" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="D43" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="D44" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="D45" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="D46" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -8866,8 +13000,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -9132,10 +13266,10 @@
         <v>212</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>216</v>
@@ -9158,10 +13292,10 @@
         <v>212</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>216</v>
@@ -9184,10 +13318,10 @@
         <v>212</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>216</v>
@@ -9207,18 +13341,20 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -9227,11 +13363,21 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -9241,11 +13387,21 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -15353,7 +19509,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -17393,7 +21549,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -17895,7 +22051,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -18289,7 +22445,7 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="D54" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -18346,7 +22502,7 @@
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1">
       <c r="D65" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="15.75" customHeight="1">
@@ -18401,7 +22557,7 @@
     </row>
     <row r="76" spans="4:4" ht="15.75" customHeight="1">
       <c r="D76" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="4:4" ht="15.75" customHeight="1">
@@ -18456,7 +22612,7 @@
     </row>
     <row r="87" spans="4:4" ht="15.75" customHeight="1">
       <c r="D87" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="15.75" customHeight="1">
@@ -18496,7 +22652,7 @@
     </row>
     <row r="95" spans="4:4" ht="15.75" customHeight="1">
       <c r="D95" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="4:4" ht="15.75" customHeight="1">
@@ -18511,7 +22667,7 @@
     </row>
     <row r="98" spans="4:4" ht="15.75" customHeight="1">
       <c r="D98" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="15.75" customHeight="1">
@@ -18551,7 +22707,7 @@
     </row>
     <row r="106" spans="4:4" ht="15.75" customHeight="1">
       <c r="D106" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="4:4" ht="15.75" customHeight="1">
@@ -18566,7 +22722,7 @@
     </row>
     <row r="109" spans="4:4" ht="15.75" customHeight="1">
       <c r="D109" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="15.75" customHeight="1">
@@ -18606,7 +22762,7 @@
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1">
       <c r="D117" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1">
@@ -18621,7 +22777,7 @@
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1">
       <c r="D120" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1">
@@ -18661,7 +22817,7 @@
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1">
       <c r="D128" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1">
@@ -18676,7 +22832,7 @@
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1">
       <c r="D131" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1">
@@ -18716,7 +22872,7 @@
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1">
       <c r="D139" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1">
@@ -18731,7 +22887,7 @@
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1">
       <c r="D142" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1">
@@ -19619,7 +23775,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -20063,7 +24219,7 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -20431,7 +24587,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -20487,7 +24643,7 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="D56" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
@@ -20527,7 +24683,7 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="D64" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1">
@@ -20567,7 +24723,7 @@
     </row>
     <row r="72" spans="4:4" ht="15.75" customHeight="1">
       <c r="D72" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="4:4" ht="15.75" customHeight="1">
@@ -20607,7 +24763,7 @@
     </row>
     <row r="80" spans="4:4" ht="15.75" customHeight="1">
       <c r="D80" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1">
@@ -20647,7 +24803,7 @@
     </row>
     <row r="88" spans="4:4" ht="15.75" customHeight="1">
       <c r="D88" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="15.75" customHeight="1">
@@ -21589,7 +25745,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:E53"/>
     </sheetView>
   </sheetViews>
@@ -23393,7 +27549,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -25210,8 +29366,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -25229,7 +29385,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>263</v>
@@ -25549,14 +29705,14 @@
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>88</v>
+      <c r="D20" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -25567,13 +29723,13 @@
       <c r="B21" s="29"/>
       <c r="C21" s="40"/>
       <c r="D21" s="33" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -25583,14 +29739,14 @@
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="33" t="s">
-        <v>167</v>
+      <c r="D22" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>88</v>
+        <v>242</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -25600,14 +29756,14 @@
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="43" t="s">
-        <v>171</v>
+      <c r="D23" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -25618,17 +29774,19 @@
       <c r="B24" s="29"/>
       <c r="C24" s="40"/>
       <c r="D24" s="33" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>88</v>
+      <c r="F24" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -25636,19 +29794,17 @@
       <c r="B25" s="29"/>
       <c r="C25" s="40"/>
       <c r="D25" s="33" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>118</v>
+      <c r="F25" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="33" t="s">
-        <v>195</v>
-      </c>
+      <c r="I25" s="29"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -25656,17 +29812,19 @@
       <c r="B26" s="29"/>
       <c r="C26" s="40"/>
       <c r="D26" s="33" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>88</v>
+        <v>203</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="33" t="s">
+        <v>271</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -25674,7 +29832,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="40"/>
       <c r="D27" s="33" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>203</v>
@@ -25685,7 +29843,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -25693,7 +29851,7 @@
       <c r="B28" s="29"/>
       <c r="C28" s="40"/>
       <c r="D28" s="33" t="s">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>203</v>
@@ -25704,7 +29862,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -25713,19 +29871,17 @@
       <c r="B29" s="29"/>
       <c r="C29" s="40"/>
       <c r="D29" s="33" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>118</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="33" t="s">
-        <v>276</v>
-      </c>
+      <c r="I29" s="29"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -25733,10 +29889,10 @@
       <c r="B30" s="29"/>
       <c r="C30" s="40"/>
       <c r="D30" s="33" t="s">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>118</v>
@@ -25750,10 +29906,10 @@
       <c r="B31" s="29"/>
       <c r="C31" s="40"/>
       <c r="D31" s="33" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>118</v>
@@ -25767,7 +29923,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="40"/>
       <c r="D32" s="33" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>129</v>
@@ -25783,14 +29939,14 @@
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="33" t="s">
-        <v>279</v>
+      <c r="D33" s="43" t="s">
+        <v>336</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>118</v>
+      <c r="F33" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -25800,37 +29956,31 @@
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="43" t="s">
-        <v>280</v>
+      <c r="D34" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>88</v>
+      <c r="F34" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="I34" s="36" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="36" t="s">
-        <v>266</v>
-      </c>
+      <c r="I35" s="29"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -25852,12 +30002,22 @@
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="29" t="b">
+        <v>1</v>
+      </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="29" t="s">
+        <v>99</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -25880,20 +30040,20 @@
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
+      <c r="G37" s="29">
+        <v>1000</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -25917,42 +30077,32 @@
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="29">
-        <v>1000</v>
+      <c r="G38" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="29" t="s">
-        <v>105</v>
-      </c>
+      <c r="I39" s="29"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -25973,9 +30123,15 @@
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="C40" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -26000,14 +30156,12 @@
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="30" t="s">
-        <v>114</v>
-      </c>
+      <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1000</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -26018,11 +30172,11 @@
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="29" t="s">
-        <v>104</v>
+      <c r="D42" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="E42" s="29">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
@@ -26033,12 +30187,8 @@
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="29">
-        <v>4000</v>
-      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
@@ -26047,9 +30197,11 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="29"/>
+      <c r="C44" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
@@ -26058,10 +30210,10 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
-      <c r="C45" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="39"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
@@ -26073,7 +30225,7 @@
       <c r="B46" s="29"/>
       <c r="C46" s="1"/>
       <c r="D46" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="29"/>
@@ -26086,7 +30238,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="29"/>
@@ -26099,24 +30251,22 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="34" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
       <c r="D49" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>110</v>
+      </c>
       <c r="F49" s="29"/>
-      <c r="G49" s="32"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
     </row>
@@ -26124,7 +30274,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="34" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
@@ -26135,9 +30285,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="29"/>
+        <v>275</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -26146,16 +30296,16 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="D53" s="34" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
@@ -26164,92 +30314,84 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="D54" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
+        <v>278</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="D55" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+        <v>279</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="D56" s="34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D57" s="34" t="s">
-        <v>287</v>
+      <c r="D57" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D58" s="39" t="s">
-        <v>288</v>
+      <c r="D58" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="D59" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="D60" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="D61" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="1"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="D62" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="D63" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="D64" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1">
       <c r="D65" s="16" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="15.75" customHeight="1">
       <c r="D66" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D67" s="16" t="s">
         <v>113</v>
       </c>
     </row>
+    <row r="67" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="68" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="69" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="70" spans="4:4" ht="15.75" customHeight="1"/>
@@ -27198,7 +31340,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -27215,10 +31357,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -27789,7 +31931,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -27887,7 +32029,7 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -27952,7 +32094,7 @@
       <c r="B44" s="29"/>
       <c r="C44" s="1"/>
       <c r="D44" s="34" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E44" s="1"/>
       <c r="H44" s="1"/>

--- a/API_Templete_bunjang_mingyu.xlsx
+++ b/API_Templete_bunjang_mingyu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Desktop/rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1CBA0-A0C6-404C-81D6-330605CC78DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF478DED-7B31-9749-9C92-7E2A7269786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,18 +26,21 @@
     <sheet name="게시글 삭제" sheetId="19" r:id="rId11"/>
     <sheet name="상점 검색시 상점 정보 API" sheetId="20" r:id="rId12"/>
     <sheet name="상점 검색시 상점 전체 게시글 API" sheetId="21" r:id="rId13"/>
+    <sheet name="브랜드 등록 API" sheetId="22" r:id="rId14"/>
+    <sheet name="카테고리에 맞는 게시글 리스트 API" sheetId="23" r:id="rId15"/>
+    <sheet name="브랜드 삭제 API" sheetId="24" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mjrFhNmnBxGRUJtszOajpn5ge6cmw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="380">
   <si>
     <t>API 명세서</t>
   </si>
@@ -3715,6 +3718,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3733,6 +3737,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.",</t>
     </r>
@@ -3756,6 +3761,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -3782,6 +3788,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>"</t>
     </r>
@@ -4117,6 +4124,576 @@
       </rPr>
       <t>같아야 함</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/brand/new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 등록 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 등록 API</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandImg_url</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandEngName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 사진</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 영어 이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드 한국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandIdx</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "brandIdx": 15</t>
+  </si>
+  <si>
+    <t>브랜드 사진을 등록해주세요.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 한국어 이름을 입력해주세요.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 영어 이름을 입력해주세요.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리에 맞는 게시글 리스트 API</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainCategory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            "postTitle": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼성전자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이스미개봉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            "postIdx": 73,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "postImg_url": "data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFBcVFBUXGBcXGB0bGxsYGxsgHRghGxoaGxsgGxsbICwkGx0pHhgaJTYlKS4wMzMzGyI5PjkxPSwyNDABCwsLEA4QGhISHTIgIikyMjQyMjIyMjIwMjIyMjIyMjIyNDIyMjIwMjIyMjIyMjIyMjIyMjIyPTIyMjIyMjIyMv/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYDBAECBwj/xABCEAACAQIEAwYDBQYFAQkAAAABAhEAAwQSITEFQWEGEyJRcYEykaEHQlKx8BQjM2KC0XKSosHhQxUWJFODssLS8f/EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMEBf/EACURAQEAAgIBAwMFAAAAAAAAAAABAhEhMQMSUWFBcZEEgaGxwf/aAAwDAQACEQMRAD8A9mpSlApSlApSlApSlApSlApSlApSlApSlApSupMUHasV68qKWdgoHMmB9ajMZxYBGZCoRRLXbhi2vpzc+mnWqdju3uCtHMveYm6NmYZVH+HNoo9FqbXS28Q7RW7YEKTm+HMQgb0zeI+ymqzxXtqyfFfsWR0l3/1QPpXnnaTtlicZIYi0n4bWhI8mufEfQEDpVX7tRrA9Tv8AM61OacL9xDt3bb4XxN8+vdp8tvlWjhu3l5GBW3kUcluvPuDKn3qmNikH3q7DEodmHzq+mG3oWK+1bFlQtu3aQ83YFmPWNFB9jUKnbziIuC4cSzEfdZUyEeRRQBHXfrVZrkVUe19n/tNw11IxM2Lg30ZkbqrKCR6MPc1ceGcUs4hM9i6lxZglDMHyI3B6GvmM1NdkOPnBYtLs+AkJcX8SMROnMjRh1Ec6D6RpXANc0ClKUClKUClKUClKUClKUClKUClKUClQXEu1uCsSLmJtgjdVOZv8qSaq3EPtXwyyLNq7dPItFtT76t/poPRq1cXjEtgFjqdFA1Zj5Ac68b4h9qWNuSLa2rQ6LnYe7mP9NVbHcYxF9s929cdo5tAgeSiAPYUHt3Eu1lqyYe7atmJysczx1VSAp6TUQPtAsXJVcSts/iay30h2HzFeNA0zVNX3Xceicf7WBHhbvfTzR2YbdQEU9ApqLxnbhiuW2lzlPeXJUx521UBhVPJroWFJibTXHu0t/GZO+Kwg8KouVRPSokba1hLUz9asmkbvC+G3MTdWzZXNceYGwEAkknkNN/SoSyhe8Ld1hbBbITczBUMx4oBKwdzBjWpjhnF7tgu2Hum07LkLKoJgkGM5BCAkDaCYFRWKt3O8Z3bM7HM2YksxOpJzamfOqMlnha9+LbuDbDQzWyGkD8B+Fp5Hb8qt93itvDWxawdi0gj94bgW894REXCyQfMKqhQfeoHhbLcXu7gIYTlk5V208UbgHnNbDksDaYh3QeDIVFuObMzaOwkD7p21baghMVeJYsqhATJAjLrroogKP8IAFdExJOy1tXkBgmB1YMSsb+E6zO2p30Nd7eGKA5lIJ8wQekg7HQbgbnU6URq5HO5iuyWY1nUVy5YNlcZT850nQ+hB9xWdMKTyJ9f+aD6J7J9oreNw6XFZRcy/vEBGZGGjab5SdQeYIqer5u4HcuYe/bvofHbaYEww2ZSfJhIPrX0Nw7GpetpdQ+FwCPMeYPUGQfSs7nTdxyk3Zw3aUpVZKUpQKUpQKUpQKUpQKVFcZ49hsIAcRdW3mnKDJZoEnKqgk/KqhxH7VsMkizauXTyLRbU+5lv9NBfr11UUu7BVUSWYwABuSTsK8j7bdvmvZrOFYpa2a4NHuDmF5on1PQaGI7TdvcRjLZtFUt2iQSqyWbKZAZidRIB0A1AqpOx50BBJM7fqK7i0SHYDw21zux0VQdBJ8ySABuSYFdA4A+p/t+vOrnjOPYC1wt8HbtveuXkJe4EKqLuhVpeGKq0BYGy9TVHnK4h7hIWFAEnoJA1PqQPerd9nPB7V/E20xID5rjSjHQqlpmUejMZ/9OqVbUA6yOR/t6VN4Gw5/hZ5XXMCoCjcZSpzTtpHUxE1KRKXcNg0wdwszDFHEuqqHaUtLGpTUQTOpHnG1V98QVYiMyjnsflzrbtYNritlAOTRhyiTrABHQkqOXiJNYHwsAEwdwCYK9NpBifrtSLXH7Sh1BrG2KHIV1t4UEyoLSDGkBo3y6mTOkAncbVswqmNJ8h12qo181xthFP2Ync1s5jyHzrjKTufYfqaI2Sndog1gqCBnVBrqTmEP7AHatLHqhBGa3J1i2uYz1c6cuh863UwzMvizFEgeInw5juAdhOh9RWO5ZAJC22JHQAexOp9gaiozD4p0AGxBB1nlqJHlVsaLtu3dvXO6BPgzS2Ygw2S3bWSm6lmIGsb1UnaWbRQAQIH110r0TD8OsXwqPc8fcWu7UQCAqHNln45fNsdDMjnQQlzCC4f/D3Echs2RAUcAaeC1cGVoGvgPL4axNcTuyrwjbqGbPcuHQ5mkxbWJ0Vv6edOKcEuWG/EATDIZgrvtsR8xzArriHN221xQBdUgXSAJuBiAlwxuwaFbzLKd5q1Ha/ge+wtq6BD2x3bESNAT3byNPDqhnYFD4Qc1YuGYvMsFBnXQzz8iAN56VO2bQt2VEqWRYuKsMSkksCVEnfMCM6jeFMtVZxt8pcFxCYBKsYM5WJgsddepMk+etYym46+LP05b/zaYy3Dzyj5f81ePs044Ldw4R2lbpLJvCvGqz/MBPqOtUQ2xu7jz8z8q5TEKhDIDmUghiYggyCOoNcse+P4j2+WTKc3Xzbz+0fRtc1BdkuOLjMMl0EZh4LgH3XWJ9iIYdCKna7vnFKUoFKUoFK1OIY23ZttcuuERBJY8v7npzrxbtZ9oGMumcPc/ZrRJCgsod10AYxLhpDbaQR6kPbsRiEtrmd1RRzYgD5mqb2k+0TDWVy4ZlxOIY5bdu0SwLHQSV3E8lknpuPD3tYnEtIu3MRckQpzu7yQPDm1aCddBpryMWbs79n/ABZH762qYZoPjuMmZQfiyhQ7KYkTAO/nUVE8VwWOvX3v4xslwEFg5EoCJVcswiiRoSMoOY+Z0LoKu1tlysvnsQdQVPMEEfOrBwrGC67rcuNcYkw7mWurGn8TxEwAwzEkiCQBArU49wi4UVsj5rZK5tPFbgkEx4pB5mSZJJ1gXYh2uAbmsL4lRtrXVcGOZ+VZhYUcvnVZcYRy7jUKBrJE7Ry5+lS72jmJi5cJ18UIg00IEBvL7hFR2HxOQllImPwFp206T561me3cuAFmkDUTqvsDpFRWpxMZIKFXUeFokgHo/P3yn+UV3wV0IUBKMp2ViGVSddVO2vsZrKxdxllXUKRAWFWf5hGXXlIBMaHY6GEwjPcS2NWZgokEHWAAZHUD3FBZncKwv6OJy3dDDTpmTNqzLoZDZo/CBXHGsDAJBB0zDzI20nUrrIILD862MTj1w7m1h0txa8Bu3ER7lwjRiDcBCJMwqjbUkk1NYXBNewZuXLaHOXYm0EtPkVSMwVFCXHJDwGGyGCCRQ2pgwrOMwDMwAJLABeiqIl9ND4WG21at5A87A5SQ34YPnG3ntpOvKrBxDh/dKui3QoID3G/d6GD+7OYZwdGUiQdpkExWGQ3Lh2LZSddy05tAZZjO2UM3kDEgMPCrYuSraOnxAny5iKlFtW1+8PRB/aoW9aKkXVAJUEODGoE6geYiNJgqBJM1MWr1sqGAZpE66D9fOsZ2+/4erweizmTc+tvH4bGFxSKw8BynRp1JB3EayOlQ/FcMWuPbQeEHbkOeynKTrvE1KLec/AoX0H+50+lZrSKv8QgFjMnn6+X5VnC6ur/e6158Nz1TnXtNRV7+GS0ADBY7T+cVJYK8MRaS3/1rXwfzgmSo/mnxL5ksNyK0+NWM2Iy66KB+dZeKWe7tJkEHMNeexrq8ad7P9oe5z27yF0uOWc7vm0BJDfFt0MzvtW7fw+HL3HtXLZV7NzwoWzZe5ZnNwR4IuBYk5tBvvUDexLrbt3MVaW4LshXtsVuSNIcwQT1IY9a64viIS33duwbSXR4nZsz3ADOXPACrIBKgCYE1UY1xpyd2pyWxrkXQE+bR8bdTJrj9lzDxq0tBA01TxBzvmEbg6A5T8Wx0O7A+En0PrzjWpH/thwE+ANbcMpVY200UyB1I1IEE1Fan7S1sZGIBTw6c42Oo8o3APmBWu+KJOkn1rhVQ+IAAEmByGp2Fdw4+6J9KqPS/sSxMXsTbZoLpbZFnfIXDkDzGdfnXslfLvC+IXLF1L1tsly2ZU78iDPmCCQR1r3LsB2sOOtMLmVb1s+MKCAyn4WAJJHMHXcdRUVcKUpQKUqldv+0z4ZBZsgi7cWc8aWwSVBHIuSCAOk+VBU/tTxz3cXbsJd7y2iAm1bUuwuEsJdBo0KVIBIA1nfXzO1hc9w5mGp3mcx9t/as74DEK7G6t1C+pLhlNwEnXWCykg661tYDBnOc8hkaMpBDLG0ggR6coNRWTgltg4uqxR0MiDDLBIHodKuPEe1+NFpPGGtsRbuNBFxX1KkuhHgcabbiOdVjHYpLCtcglnPmZY7mSdtyfetfgfEM7PaxJhcQCMv4BurfywQCPQ+dTtdprBMEACBUHkihfqNT71JWbtQGFdlLW7n8S2xR+pGx9CIPvUjbu1RXOO4XurxA0t3BmSP8AWvsSPYitJbJOyn1On51auK4fvbZVdHU5kP8AMOXowlfcHlURYxSFQy2zJGubSDzHselS5a+m3Tx+KZ3myfdp28KxMgwRtl3Huf7VsYc3FUgrlC/C1wrr5yAYzD1HpWz3lxvh0HQf7nT6Vo4vAksPACW+JyZbTSACPDp5GpM7bq8N+TwzHHeO773WowYrHKTpcuXP5QCqno2XKzfM1i4NcNm9ZuMsBHDROpIYPoOuUCpL9lW0hYLJA+ZqtF7jvrq86dD06Vt5luxHDmbFGwu73cqnkQ7SjehVg3pVx4lGCsMi3HdWk2w4BNtVI8OeNmc2jlMQMw86q3BOLlbtrvCq37S5QSQBctsCpQsdEcBjkc6CYMCDWbtXxB2YW3IzAnZSkqrOLZKHZmLXHOg+MdKqNLh7G4t2wde8VridLttSwP8AUqsh9V8hWpgU7tSSGDcyxyoBGxB+MnYjK41+GtvgQyOcQ2luwrMzci2Ui2gPNmYjTyk8qhkxchc0xymfp5VFbeOYZmZSYfcREEiDudfLkPJVGla3Ar5VXQhWyNoT5GYjzGk+9Z7QDRIOUmAdIzRIEnc9FDN5KSQDGXbgDHcuJDDXz59ZneT5xsJZLxWsMrhdztNXccebn0XT67/WtR8dG0D11n1HOo6bjdBXKYXzM0mMnUXLyZZd3aQ4Ge8xInVSIHSOX1mrf214OBh0dB8J1/XtVKwlzunVl0IM+tWRe1JuI1u4nhIAkHfzIBmI9Z/Kqw1LTi5hu6O48S+o3rngIS4rWL2xMg/hPmKjbd2HlJKmCCQRvrGtTeL4S2UYi1/UtWCKx/BHtkgQwkRyMdTtpUJdRg2old+Ykc9wDVlbHs0K252n5foVG8SLIxtkKSfihgY12bLIB8wSD0pRoW7CgtGqzK9AQDH1rOBXUQBWEkttoKIzNcAr0D7GsI9zF3bwkW7dsqT+JnYZR7BGJ/p8688WwOete4/Y9hgmAZgB+8vO3+UKn5oaKv1KUqDQ4pauvbZbLi27aZyubKOZCyPFG01qcC4BbwwLD95dfV7r6u5/xGSF8hNTVKDzb7U8AA1m+AxmbbH7oiWXTkTL/KvPbVxCzZSMxPi11JEE/wDuHzr3vjPDUxNl7L7Ouh/CRqrDqCAa8H4jwBrIe6Cwu2rp75D8ORiqSoAmFaJ3kXEbSpVjs9tXGVoid4BK9RPOCarGIstauG2klz4u8IjwnmJ5EDUnrVgLAEshJVgDJABmNdATp/b2rU4k5ZQxdly6DLvGpI2011nlrU2NzFXO8tpiVkm3Fq7pBy7W3I6GVPSKzWrlQ/Z/iIRyt0RZuDu+7j4lb4j1OxzHdorcVGtXHsuZKHwt+NDqjA85WqqVV6h8UTaulgAVunn91+cafe39QakFesGNtB0KkxOx/CRqp9jUslmq1jlccplGKLrbkgdBH/P1rG1pU3uQ3zP11atRMYzAi4zZlJVlGgBG+2/vWC5dX0HrH5QaxML8T7PTn+owve8r83U/Db4hiBct5cniVoaZCmPvCRIHQ107NcMNxxA/sKi8bdVxBMnl0q+fZ84UjNEERXV4qonE7ZbFONRDAab7CrFjziLF1bNq7NlrYe33oVwJUkqAykAyCNAK47UcO7vGvtDmVPnP6iu2Pud5aVfv2tAen/7QRvEsZiGNtrlwvbHwAKFRTsRkXwqfQVqsttxquX/Dp+VS/Z/EIxa1eEo+hB5HzHkazY/s21pjleUMwSMw6AxBA66+hqorosqrZgSD0OkeRHMdK6rfUMEAAgchvJ/XzrPjsK4JC5SPMSPXwnxAeoFaOCt+MmQY5jaT+jUVu5zyHz/tXBB5n5aVxec7LvWMWWO5qo7m4o/4roMRJ2rIuHX1rJkoOqvMa7ajpO9b7cavBcouZR5AD896jWQHY69KxG2PvN8qDbfilzIELyOZgS2s+In/AGitXOx8/Uk/ma6tdVeXz/tWP9pJMAEzoPKfzoMwt+Z+VZlJ2Aj1/tWJ3yjaOUx+vP61zYs55LM0R93zjwj5xSTfQt3Y3sVcxz5mLLYU+N9pjdU/E3XYc/I+68K4dbw9pLNlQltBAA9ZJJ5kkkk8yTVd+zjEXWwSJdt92LXhQxAZR+ZB0J6aknNVvrMu41Zq6c0pSqhSlKBVE7c8OyMuKVMyN+7vJycMMon/ABKSk+fdnlV7rWxuEW7be24lXUqR0I/Og+eLmFNq69qc6LDW3/GjjMpP8xBEjkZHKu72QQRp77Vm47hXwdy5bcSyvE8mzahvcQfesFrEqyqwOjRHv69aiq1cDK50LXvYhSfLzaD6CrA1zvcOt1SGu4WFePvWzE+uRjv5ERWpxfDffEKp/iMN4G2nOfqYmnZy+yXA6L+6AIZTH7wHQgmNSQSNNB60G9YuTqKz8q0MRh+4utaBlID22/FbbVfcbH0raR6KieLYVs2dOeje3wn5aewrQGFPM1Y7yAjUev686gWZpZSQMpjT5g68iDNWM0Wwo5fOt7h2PNsmGePJcsT/AFD8j86jndR1PzrocQTsKqLLjeKd/bBuFVuLoCoYnfTkcx9I9q0kvEkPEEaMD/aohFfmfnWdcQykEzoIB3EDl6dKKl8fwsrlvWtVO45j1/vWxb4s5UKTGmxj86gnxdyP4rgeQMfkKx2Me6IUQ6EySQCfr6b70RJY+6SDMamCQZnSfugiPUidY2qNDBfIdBt7DkKxs9xzLEnqTTuwNzUVktaya7NeUc/lWtexAAgVu8F4S+IOmglQTzGYwDA1Ox+VVGq2K8hWB7xO5rb4twq5ZvNaWbmSAxiFzFQxAM6iCOeta9vBHKzkkgCfCPCRuYdoE76amgwq3MmmV2YKqtJGgAMtvtG+x+VY2czpoPr7mtxse5tpbnLknxLILSZ1j9c+ZoA4U4AZiE0JIaAYmBAnWdPnWnhzDA6xPKJjpymKyBSYnWNp5dB5CpbhPAcRimjDWHua7qPAvQu3hG/M0VKdn+FWsQxAZmVSM6Ekl9oJI+7mXYbaVbcacDhFN3Ir3BH7u2yrlMBfhHwDTf5Vk7MfZZiLbi7exAtaEFLXiYqd1Zm8InoG5QedegcG7I4LCz3VlcxMln8RnpOi78gKnvPc9qwdg+LvicIrXLbW2QlNVKqwGqshIGYZSAY0kGrRXFc0ClKUClKUClKUFF+0Tg4ZUxYWTagPA1yTo3qjGfQma8oytauPZhVtXMrIFjdQZGpJmQxnY78xX0ZethlKsAVIIIOxBEEGvBu1PBDYxRRyxW2c9sk7qQApn0UKeRK1FaT2BcGQiQ2kflHkZ51hxV4WoSABl8JmVgErplnmpX1FdhikzATqdvLTrtW9hDZxOMS3fYhrilVK5QMxBKK2bYM5A/qAG5iXf0Ij2b9owxZQe8w8soIgtbOtxR5x8Y/q8q1sNdBAIq0cFsCyFuOpMAh1IkqROaBy0ExzhxttW+M4H9mxDW1/hP8AvLZ5FWOwPODI+tTHLbVjPmkVE8RwmY5huBB6if8AYn69K3keuLo5/o1tlDph1G+tZEjZQSfJQSfkKs3AruAS05xSr3iPI+M3LqOAFFtQSgIi4rSNMysCCorBi+1CLmXDYe3bSfCWGWQbaq4KJ4hLBiCHBIKzJFVljt9n7gIFwlXYORbVSWPdmIz/AAKWMBZJ1e3vm07cXwNi0mVGQXUdkYG4We5BIDZJhBABiBqxGuXWAxnFbjqUuXGKGJQeFDl0WUXQkAAAnWFXyER5xIGiiPTSg3nVedY3vqu1aSl3IVQSx2VRJPoBU7gOxmJeGuZbK+dw+L2RZb5xUtVDvjfKscswJ5DXT8/TUfOrzZ7IYW2PG1y63OWCL/lWW/1VH4nCYa3dVVMZg3hzCAI2LEaTr1qeo0qSrJ8Wx5+VSNvHvaEWnhisF1zAx5culZMfasguLZLSfDlJyrtzIE8/OZ5VpJZJIABJJgACST5ADUmtBZxDLmiDmBBDAMDm3Pi2b+bet/AI7AMxXKpgNcbRdIiNTEHkPerFwP7OMfiIJtdyh+9e8J9kEv8AMD1r0Tgv2TYS3DYhnxDDlORP8qnMR6sfSg8ctcMFxhbwwu3rs6hLZIjlAEn3MCrnwT7KMZdhr7Jh18m/eP8A5VOUe7e1e2YDAWrKBLNtLaj7qKFHyFbdQUngv2aYDDwzWzfcfevHMPZBCfME1ckthQFUAAbACAPQDaslKBSlKBSlKBSlKBSlKBSlKDiqn274YXs98q5mtK2ZYBzIR4gRHiAEmOpOu1WytPiuC76xdsliouW2TMpgrnUrI6ialmx4BhuCXTbtGEbvWcWyGUBsvxTEnNMIJiYE6AVzxXhv7oXVnvLRi4Nimu/SD97cAtzrc4Uj23u4G4sXbdw3LYHN00uIOly2sjmTbXzqVxGKQXEv6G3eU27oG2YKCZHKVIcdCaxbZeHSTca2Bx/eBbxMC6cl7+S6oH7yOQYBbkdborHxjhhvYd0Ai7h5uW15wDFxB5jaP6AN60eG4buMRcwztltXQFVz90zms3D0DNlPmHeanrGLyMDcPd3LThbik8tVMnyKgifNV5mpeLuEv0qiYXESAa2s007RYJLGIY22DWbpZrbKfCCDDqOgOoH4SvnWC1cFdO2GPE2C5ABAPKTA6gn6/PzqVxHYx7iL+y3rVxiNUJyOdNdGOpHSR5HlUde1235VjXjVyy2XLI5DWfT56fKlHb/uLjMxDi2nV3/+oJqVwXY6xb1v3GuH8KeBPQn4iPTLUZd7ZXdjbEjTVjp7RUVjON37vxPlHkug+e/1qcnC9txbC4Rctvu7emoQDO3+IjxH3rRvdqLW+cnookn3Og+tUEJWxat09JtIcR4ncvMSSypyQMY/q8zWmlus6Yfz0199p2qc4Z2cvXIK28o08V3QdYXcj2q5ZY4zngkt6QS2tzGg36etXDsIb+ExhuCyGNtWt3EdgpXNB8JP3pUcoidpmpbA9jbawbztcOnhHhT5DU79KuOF7G4fE5bl5Lq5VVCiuVS6qABGePExC+HfYCuc8syuo1cLjN1Odmu0K4vOBlDW8uZVYNlDg5cx5NKtp0qfrS4dwyzh07uxaS2nkigA9TG56mt2uk6ZrmlKVUKUpQKUpQKUpQKUpQKUpQKUpQKUpQeV/avwZrb28fa0ZWVXI+6y/wAN/wD4nzhRzqLwzW7oC6LaxS5lH/lXVMMB1VjEc0uL5V63xLApftPZuCVuKVPvzHUHUeleHYvD3cAl+1iLbFWabbfD4l8BuKx0KlCsj02jTGU3GsbpzjcC724fR7RNtucp933ERPSajuNYy6bguYmGIAtoxiBlCyHyy7MA06iPWsb8VIJa5dLNdjOV0RoAjXQORBJI0kmtvF3u9VA8ELtpvpAPrHl71JLpbZto2G/ardywFIYHNaPncWQAOjr4fXJ5VB4fFaa1Zk0jLpG0UxXAMXfNzF4S0FRE7y4yuJa4JZyqElpO+UDLpprpW4zUUuBvNbN3IVtgSWbTbeAdWPQCtRsTNpststqJdxEDLl0Hl4h97yMaVm4K6Xb9oY13OGZ8jsrRlzKQrTyAYqxPkDWTi3Cb+Hv3MG6tca34FgHxITnVgB90hp30kjlVEJetsTmciT030HICBpGmm9cLhjHkInXSfTz9qtOA7K3WQu57t1ZZ2Y92RlJgbFWyc9mJ0y62Dh3ZiyhACG4/LN4j7KNPpXHLz44/LePit74UfAcKuXD+7ts45NsnWSY/OrPw7se3/VuQDutv/dyNvavROH9lrzgZgLa/zb+yjb3qy4Ps3ZSCwLsPxbfIf7zXP1eXydTUa1hh8qJwbs7bQxZsy34ok+7tt+VW3B9m2OtxgvRdT89qsyIFEAADyGgrvWsf083vLmpfLepw0cLwu1b+FBPmdT9dq3qUrvJJ05b25pSlUKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKge1XCzfs+ETctnOnmSBt1n8Ox2NT1KD5mt8NQsWjQsWyamNdBPOAYrcuqFMKdNx6HaevI9RVn+0DhH7NiS6CLd6XWNg0jOvzhv6h5VWrOHLIzjl9fxfIa/oVle3CISRyB5/rrpVr7G8YXD4kAkd1dGV/JTtPpIn/CarCZih8JKqQSYMLOmp5T/ALVwlILe/wBkCviLpa+Ew5clEtrL5W1yy3hQAkgaNoBtVr4z2WzLa7ky9tFtEu2rovwFmjxMpn/M1WbBX1e2joZVlBHy/PlWxTLGZTVMcrjdxVeF9k1Qhrj5jr4VELqCCDOrAgkcqsGFwNu0Itoq+g1PqdzW1Spj48ceouWVy7K5pStslKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoFKUoIDthwX9rwr2wB3i+ND/MOXowlfevDi5J101+HaOR05Gvo+qV2v7HWbtu7es28t8Av4NBcjVpXbMROogk71LBH/ZSVK4hTGpTQ8xDg+u9RXbvs8bWIV7Ns5L2y212caFQFGk6EDq3lWt9nd64uMUW1LKykXI2C7hifWPnXslUV/sbw+7YwqJe+OScv4AdlJ8+ZjzqwUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQKUpQK4NKUEP2fw6IjZEVZutOUATqd43qZpSgUpSgUpSgUpSgUpSgUpSgUpSgUpSgUpSgUpSgUpSgUpSg/9k=",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "price": 45000,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            "postTitle": "gtx660 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팝니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            "payStatus": true</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역서비스는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/1 or 생활/1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고거래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/3 or 중고거래/3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남성의류는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고거래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/2 or 중고거래/2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여성의류는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고거래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/1 or 중고거래/1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/category/:mainCategory/:idx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/category/:mainCategory/:idx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/brand/delete/:brandName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제 API</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>브랜드가 삭제되었습니다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공하였습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "result": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>."</t>
+    </r>
+  </si>
+  <si>
+    <t>브랜드 삭제에 실패하였습니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4370,7 +4947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4470,17 +5047,26 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4538,6 +5124,55 @@
         <a:xfrm>
           <a:off x="10413999" y="6043083"/>
           <a:ext cx="1859280" cy="4131734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2705947</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>162982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8EC180-8A99-E0A7-89CF-46DEC646039C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13970000" y="6064249"/>
+          <a:ext cx="3002280" cy="6671733"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5770,55 +6405,55 @@
       <c r="J33" s="19"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9490,7 +10125,7 @@
       <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="29"/>
       <c r="C5" s="30" t="s">
         <v>79</v>
@@ -9515,7 +10150,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -9526,7 +10161,7 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -11192,7 +11827,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
@@ -11213,7 +11848,7 @@
       <c r="A1" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>338</v>
       </c>
       <c r="C1" s="29"/>
@@ -11264,7 +11899,7 @@
       <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="29"/>
       <c r="C5" s="30" t="s">
         <v>79</v>
@@ -11289,7 +11924,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -11300,7 +11935,7 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -12993,6 +13628,5521 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F421C6-C45E-FE4F-8AD5-74E7AD450C60}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="21.6640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E40" s="29">
+        <v>2026</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="29">
+        <v>2027</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="29">
+        <v>2028</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="35">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D53" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D54" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D55" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D60" s="34"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D61" s="39"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC3EAEA-E465-A244-80FC-FEC65E387EF6}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="42.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="29">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="D40" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="D41" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="D42" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="D43" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="D44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="D45" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="D46" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="D50" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="D52" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D53" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D54" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D55" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D56" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D57" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D58" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D59" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D60" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D61" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D62" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D63" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C23BF-E365-4A45-A2A0-B66CE5164028}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="16"/>
+    <col min="9" max="9" width="21.6640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="29">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E40" s="29">
+        <v>2029</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="35">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D59" s="39"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -13001,7 +19151,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -13378,7 +19528,9 @@
       <c r="H16" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -13402,7 +19554,9 @@
       <c r="H17" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -13411,40 +19565,76 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="16" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="3">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="32.25" customHeight="1">
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="D20" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
